--- a/Exames UPA x Agravo/examesUPA.xlsx
+++ b/Exames UPA x Agravo/examesUPA.xlsx
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ut15_resultado_teste_covid!$A$1:$H$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3062" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3837" uniqueCount="80">
   <si>
     <t>ID SOLIC.</t>
   </si>
@@ -75,6 +75,9 @@
     <t>POSITIVO., 643G2036</t>
   </si>
   <si>
+    <t>POSITIVO, 643G2036</t>
+  </si>
+  <si>
     <t>09/06/2021</t>
   </si>
   <si>
@@ -93,13 +96,10 @@
     <t>10/06/2021</t>
   </si>
   <si>
-    <t>NEGATIVO, NEGATIVO.</t>
+    <t>NEGATIVO., NEGATIVO</t>
   </si>
   <si>
     <t>11/06/2021</t>
-  </si>
-  <si>
-    <t>POSITIVO, 643G2036</t>
   </si>
   <si>
     <t>12/06/2021</t>
@@ -138,16 +138,16 @@
     <t>W19610508, NEGATIVO.</t>
   </si>
   <si>
-    <t>W19610508, POSITIVO.</t>
+    <t>POSITIVO., W19610508</t>
   </si>
   <si>
     <t>22/06/2021</t>
   </si>
   <si>
-    <t>NEGATIVO., W19610508</t>
+    <t>W19610508, POSITIVO.</t>
   </si>
   <si>
-    <t>POSITIVO., W19610508</t>
+    <t>NEGATIVO., W19610508</t>
   </si>
   <si>
     <t>23/06/2021</t>
@@ -162,7 +162,7 @@
     <t>w19610508, NEGATIVO.</t>
   </si>
   <si>
-    <t>POSITIVO., w19610508</t>
+    <t>w19610508, POSITIVO.</t>
   </si>
   <si>
     <t>25/06/2021</t>
@@ -189,16 +189,16 @@
     <t>W1961058, POSITIVO.</t>
   </si>
   <si>
-    <t>W1961058, NEGATIVO.</t>
+    <t>NEGATIVO., W1961058</t>
   </si>
   <si>
     <t>29/06/2021</t>
   </si>
   <si>
-    <t>30/06/2021</t>
+    <t>NEGATIVO., w19610508</t>
   </si>
   <si>
-    <t>NEGATIVO., w19610508</t>
+    <t>30/06/2021</t>
   </si>
   <si>
     <t>01/07/2021</t>
@@ -234,6 +234,9 @@
     <t>10/07/2021</t>
   </si>
   <si>
+    <t>POSITIVO., w19610508</t>
+  </si>
+  <si>
     <t>11/07/2021</t>
   </si>
   <si>
@@ -241,6 +244,24 @@
   </si>
   <si>
     <t>13/07/2021</t>
+  </si>
+  <si>
+    <t>14/07/2021</t>
+  </si>
+  <si>
+    <t>15/07/2021</t>
+  </si>
+  <si>
+    <t>16/07/2021</t>
+  </si>
+  <si>
+    <t>17/07/2021</t>
+  </si>
+  <si>
+    <t>18/07/2021</t>
+  </si>
+  <si>
+    <t>19/07/2021</t>
   </si>
 </sst>
 </file>
@@ -585,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J612"/>
+  <dimension ref="A1:H767"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" topLeftCell="A741" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -603,7 +624,7 @@
     <col min="8" max="8" width="0.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="12.95" customHeight="1">
+    <row r="1" spans="1:8" ht="12.95" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -626,9 +647,8 @@
         <v>6</v>
       </c>
       <c r="H1" s="3"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" ht="12.95" customHeight="1">
+    </row>
+    <row r="2" spans="1:8" ht="12.95" customHeight="1">
       <c r="A2" s="4">
         <v>325401</v>
       </c>
@@ -652,7 +672,7 @@
       </c>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="12.95" customHeight="1">
+    <row r="3" spans="1:8" ht="12.95" customHeight="1">
       <c r="A3" s="4">
         <v>325409</v>
       </c>
@@ -676,7 +696,7 @@
       </c>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="12.95" customHeight="1">
+    <row r="4" spans="1:8" ht="12.95" customHeight="1">
       <c r="A4" s="4">
         <v>325411</v>
       </c>
@@ -700,7 +720,7 @@
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="12.95" customHeight="1">
+    <row r="5" spans="1:8" ht="12.95" customHeight="1">
       <c r="A5" s="4">
         <v>325412</v>
       </c>
@@ -724,7 +744,7 @@
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="12.95" customHeight="1">
+    <row r="6" spans="1:8" ht="12.95" customHeight="1">
       <c r="A6" s="4">
         <v>325415</v>
       </c>
@@ -748,7 +768,7 @@
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="12.95" customHeight="1">
+    <row r="7" spans="1:8" ht="12.95" customHeight="1">
       <c r="A7" s="4">
         <v>325460</v>
       </c>
@@ -772,7 +792,7 @@
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:10" ht="12.95" customHeight="1">
+    <row r="8" spans="1:8" ht="12.95" customHeight="1">
       <c r="A8" s="4">
         <v>325461</v>
       </c>
@@ -796,7 +816,7 @@
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:10" ht="12.95" customHeight="1">
+    <row r="9" spans="1:8" ht="12.95" customHeight="1">
       <c r="A9" s="4">
         <v>325494</v>
       </c>
@@ -820,7 +840,7 @@
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="12.95" customHeight="1">
+    <row r="10" spans="1:8" ht="12.95" customHeight="1">
       <c r="A10" s="4">
         <v>325497</v>
       </c>
@@ -844,7 +864,7 @@
       </c>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:10" ht="12.95" customHeight="1">
+    <row r="11" spans="1:8" ht="12.95" customHeight="1">
       <c r="A11" s="4">
         <v>325506</v>
       </c>
@@ -868,7 +888,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="12.95" customHeight="1">
+    <row r="12" spans="1:8" ht="12.95" customHeight="1">
       <c r="A12" s="4">
         <v>325511</v>
       </c>
@@ -892,7 +912,7 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:10" ht="12.95" customHeight="1">
+    <row r="13" spans="1:8" ht="12.95" customHeight="1">
       <c r="A13" s="4">
         <v>325518</v>
       </c>
@@ -916,7 +936,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:10" ht="12.95" customHeight="1">
+    <row r="14" spans="1:8" ht="12.95" customHeight="1">
       <c r="A14" s="4">
         <v>325519</v>
       </c>
@@ -940,7 +960,7 @@
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:10" ht="12.95" customHeight="1">
+    <row r="15" spans="1:8" ht="12.95" customHeight="1">
       <c r="A15" s="4">
         <v>325522</v>
       </c>
@@ -960,11 +980,11 @@
         <v>9</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:10" ht="12.95" customHeight="1">
+    <row r="16" spans="1:8" ht="12.95" customHeight="1">
       <c r="A16" s="4">
         <v>325528</v>
       </c>
@@ -1032,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H18" s="3"/>
     </row>
@@ -1098,10 +1118,10 @@
         <v>254740</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>14</v>
@@ -1122,10 +1142,10 @@
         <v>87847</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>14</v>
@@ -1146,13 +1166,13 @@
         <v>253724</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H23" s="3"/>
     </row>
@@ -1170,13 +1190,13 @@
         <v>302194</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H24" s="3"/>
     </row>
@@ -1194,13 +1214,13 @@
         <v>86637</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H25" s="3"/>
     </row>
@@ -1218,13 +1238,13 @@
         <v>18411</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H26" s="3"/>
     </row>
@@ -1242,10 +1262,10 @@
         <v>173775</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>10</v>
@@ -1266,13 +1286,13 @@
         <v>3167</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H28" s="3"/>
     </row>
@@ -1290,13 +1310,13 @@
         <v>27987</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H29" s="3"/>
     </row>
@@ -1314,13 +1334,13 @@
         <v>75453</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H30" s="3"/>
     </row>
@@ -1338,13 +1358,13 @@
         <v>4986</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H31" s="3"/>
     </row>
@@ -1362,13 +1382,13 @@
         <v>126232</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H32" s="3"/>
     </row>
@@ -1386,13 +1406,13 @@
         <v>331195</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H33" s="3"/>
     </row>
@@ -1410,13 +1430,13 @@
         <v>32588</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H34" s="3"/>
     </row>
@@ -1434,13 +1454,13 @@
         <v>9153</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H35" s="3"/>
     </row>
@@ -1458,13 +1478,13 @@
         <v>13489</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H36" s="3"/>
     </row>
@@ -1482,13 +1502,13 @@
         <v>283168</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H37" s="3"/>
     </row>
@@ -1506,13 +1526,13 @@
         <v>25987</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H38" s="3"/>
     </row>
@@ -1530,13 +1550,13 @@
         <v>162280</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H39" s="3"/>
     </row>
@@ -1554,13 +1574,13 @@
         <v>288930</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H40" s="3"/>
     </row>
@@ -1578,13 +1598,13 @@
         <v>4833</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H41" s="3"/>
     </row>
@@ -1602,13 +1622,13 @@
         <v>241000</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H42" s="3"/>
     </row>
@@ -1626,13 +1646,13 @@
         <v>303602</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H43" s="3"/>
     </row>
@@ -1650,13 +1670,13 @@
         <v>278255</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H44" s="3"/>
     </row>
@@ -1674,13 +1694,13 @@
         <v>74002</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H45" s="3"/>
     </row>
@@ -1698,13 +1718,13 @@
         <v>334482</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H46" s="3"/>
     </row>
@@ -1722,13 +1742,13 @@
         <v>162806</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H47" s="3"/>
     </row>
@@ -1746,13 +1766,13 @@
         <v>112645</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H48" s="3"/>
     </row>
@@ -1770,13 +1790,13 @@
         <v>36426</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H49" s="3"/>
     </row>
@@ -1794,10 +1814,10 @@
         <v>24401</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>14</v>
@@ -1818,13 +1838,13 @@
         <v>82942</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H51" s="3"/>
     </row>
@@ -1842,13 +1862,13 @@
         <v>173551</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H52" s="3"/>
     </row>
@@ -1866,13 +1886,13 @@
         <v>81499</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H53" s="3"/>
     </row>
@@ -1890,13 +1910,13 @@
         <v>249464</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H54" s="3"/>
     </row>
@@ -1914,13 +1934,13 @@
         <v>36384</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H55" s="3"/>
     </row>
@@ -1944,7 +1964,7 @@
         <v>26</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H56" s="3"/>
     </row>
@@ -2088,7 +2108,7 @@
         <v>27</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H62" s="3"/>
     </row>
@@ -2112,7 +2132,7 @@
         <v>27</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H63" s="3"/>
     </row>
@@ -2136,7 +2156,7 @@
         <v>27</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H64" s="3"/>
     </row>
@@ -2160,7 +2180,7 @@
         <v>27</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H65" s="3"/>
     </row>
@@ -2184,7 +2204,7 @@
         <v>27</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H66" s="3"/>
     </row>
@@ -2208,7 +2228,7 @@
         <v>27</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H67" s="3"/>
     </row>
@@ -2232,7 +2252,7 @@
         <v>28</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H68" s="3"/>
     </row>
@@ -2256,7 +2276,7 @@
         <v>28</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H69" s="3"/>
     </row>
@@ -2280,7 +2300,7 @@
         <v>28</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H70" s="3"/>
     </row>
@@ -2304,7 +2324,7 @@
         <v>28</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H71" s="3"/>
     </row>
@@ -2328,7 +2348,7 @@
         <v>28</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H72" s="3"/>
     </row>
@@ -2352,7 +2372,7 @@
         <v>28</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H73" s="3"/>
     </row>
@@ -2544,7 +2564,7 @@
         <v>29</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H81" s="3"/>
     </row>
@@ -2616,7 +2636,7 @@
         <v>30</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H84" s="3"/>
     </row>
@@ -2688,7 +2708,7 @@
         <v>30</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H87" s="3"/>
     </row>
@@ -2760,7 +2780,7 @@
         <v>30</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H90" s="3"/>
     </row>
@@ -2928,7 +2948,7 @@
         <v>32</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H97" s="3"/>
     </row>
@@ -3096,7 +3116,7 @@
         <v>33</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H104" s="3"/>
     </row>
@@ -3144,7 +3164,7 @@
         <v>33</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H106" s="3"/>
     </row>
@@ -3480,7 +3500,7 @@
         <v>34</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H120" s="3"/>
     </row>
@@ -3504,7 +3524,7 @@
         <v>34</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H121" s="3"/>
     </row>
@@ -3552,7 +3572,7 @@
         <v>34</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H123" s="3"/>
     </row>
@@ -3576,7 +3596,7 @@
         <v>34</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H124" s="3"/>
     </row>
@@ -3648,7 +3668,7 @@
         <v>34</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H127" s="3"/>
     </row>
@@ -3720,7 +3740,7 @@
         <v>34</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H130" s="3"/>
     </row>
@@ -3840,7 +3860,7 @@
         <v>35</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H135" s="3"/>
     </row>
@@ -3864,7 +3884,7 @@
         <v>35</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H136" s="3"/>
     </row>
@@ -3888,7 +3908,7 @@
         <v>35</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H137" s="3"/>
     </row>
@@ -3960,7 +3980,7 @@
         <v>35</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H140" s="3"/>
     </row>
@@ -4248,7 +4268,7 @@
         <v>35</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H152" s="3"/>
     </row>
@@ -4560,7 +4580,7 @@
         <v>35</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H165" s="3"/>
     </row>
@@ -4656,7 +4676,7 @@
         <v>36</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H169" s="3"/>
     </row>
@@ -4680,7 +4700,7 @@
         <v>36</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H170" s="3"/>
     </row>
@@ -4752,7 +4772,7 @@
         <v>36</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H173" s="3"/>
     </row>
@@ -4968,7 +4988,7 @@
         <v>36</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H182" s="3"/>
     </row>
@@ -5088,7 +5108,7 @@
         <v>39</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H187" s="3"/>
     </row>
@@ -5112,7 +5132,7 @@
         <v>39</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H188" s="3"/>
     </row>
@@ -5136,7 +5156,7 @@
         <v>39</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H189" s="3"/>
     </row>
@@ -5160,7 +5180,7 @@
         <v>39</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H190" s="3"/>
     </row>
@@ -5184,7 +5204,7 @@
         <v>39</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H191" s="3"/>
     </row>
@@ -5280,7 +5300,7 @@
         <v>39</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H195" s="3"/>
     </row>
@@ -5304,7 +5324,7 @@
         <v>42</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H196" s="3"/>
     </row>
@@ -5352,7 +5372,7 @@
         <v>42</v>
       </c>
       <c r="G198" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H198" s="3"/>
     </row>
@@ -5424,7 +5444,7 @@
         <v>42</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H201" s="3"/>
     </row>
@@ -5448,7 +5468,7 @@
         <v>42</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H202" s="3"/>
     </row>
@@ -5472,7 +5492,7 @@
         <v>42</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H203" s="3"/>
     </row>
@@ -5496,7 +5516,7 @@
         <v>42</v>
       </c>
       <c r="G204" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H204" s="3"/>
     </row>
@@ -5544,7 +5564,7 @@
         <v>42</v>
       </c>
       <c r="G206" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H206" s="3"/>
     </row>
@@ -5568,7 +5588,7 @@
         <v>42</v>
       </c>
       <c r="G207" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H207" s="3"/>
     </row>
@@ -5688,7 +5708,7 @@
         <v>42</v>
       </c>
       <c r="G212" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H212" s="3"/>
     </row>
@@ -5712,7 +5732,7 @@
         <v>43</v>
       </c>
       <c r="G213" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H213" s="3"/>
     </row>
@@ -5760,7 +5780,7 @@
         <v>43</v>
       </c>
       <c r="G215" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H215" s="3"/>
     </row>
@@ -5904,7 +5924,7 @@
         <v>43</v>
       </c>
       <c r="G221" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H221" s="3"/>
     </row>
@@ -6000,7 +6020,7 @@
         <v>47</v>
       </c>
       <c r="G225" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H225" s="3"/>
     </row>
@@ -6312,7 +6332,7 @@
         <v>47</v>
       </c>
       <c r="G238" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H238" s="3"/>
     </row>
@@ -6336,7 +6356,7 @@
         <v>47</v>
       </c>
       <c r="G239" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H239" s="3"/>
     </row>
@@ -6360,7 +6380,7 @@
         <v>47</v>
       </c>
       <c r="G240" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H240" s="3"/>
     </row>
@@ -6408,7 +6428,7 @@
         <v>51</v>
       </c>
       <c r="G242" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H242" s="3"/>
     </row>
@@ -6432,7 +6452,7 @@
         <v>51</v>
       </c>
       <c r="G243" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H243" s="3"/>
     </row>
@@ -6528,7 +6548,7 @@
         <v>51</v>
       </c>
       <c r="G247" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H247" s="3"/>
     </row>
@@ -6552,7 +6572,7 @@
         <v>51</v>
       </c>
       <c r="G248" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H248" s="3"/>
     </row>
@@ -6600,7 +6620,7 @@
         <v>51</v>
       </c>
       <c r="G250" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H250" s="3"/>
     </row>
@@ -6624,7 +6644,7 @@
         <v>51</v>
       </c>
       <c r="G251" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H251" s="3"/>
     </row>
@@ -6648,7 +6668,7 @@
         <v>51</v>
       </c>
       <c r="G252" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H252" s="3"/>
     </row>
@@ -6672,7 +6692,7 @@
         <v>51</v>
       </c>
       <c r="G253" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H253" s="3"/>
     </row>
@@ -6696,7 +6716,7 @@
         <v>51</v>
       </c>
       <c r="G254" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H254" s="3"/>
     </row>
@@ -6720,7 +6740,7 @@
         <v>51</v>
       </c>
       <c r="G255" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H255" s="3"/>
     </row>
@@ -6768,7 +6788,7 @@
         <v>51</v>
       </c>
       <c r="G257" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H257" s="3"/>
     </row>
@@ -6792,7 +6812,7 @@
         <v>51</v>
       </c>
       <c r="G258" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H258" s="3"/>
     </row>
@@ -6816,7 +6836,7 @@
         <v>51</v>
       </c>
       <c r="G259" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H259" s="3"/>
     </row>
@@ -6840,7 +6860,7 @@
         <v>51</v>
       </c>
       <c r="G260" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H260" s="3"/>
     </row>
@@ -6864,7 +6884,7 @@
         <v>51</v>
       </c>
       <c r="G261" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H261" s="3"/>
     </row>
@@ -7080,7 +7100,7 @@
         <v>52</v>
       </c>
       <c r="G270" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H270" s="3"/>
     </row>
@@ -7152,7 +7172,7 @@
         <v>52</v>
       </c>
       <c r="G273" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H273" s="3"/>
     </row>
@@ -7176,7 +7196,7 @@
         <v>52</v>
       </c>
       <c r="G274" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H274" s="3"/>
     </row>
@@ -7200,7 +7220,7 @@
         <v>52</v>
       </c>
       <c r="G275" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H275" s="3"/>
     </row>
@@ -7224,7 +7244,7 @@
         <v>52</v>
       </c>
       <c r="G276" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H276" s="3"/>
     </row>
@@ -7248,7 +7268,7 @@
         <v>52</v>
       </c>
       <c r="G277" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H277" s="3"/>
     </row>
@@ -7272,7 +7292,7 @@
         <v>52</v>
       </c>
       <c r="G278" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H278" s="3"/>
     </row>
@@ -7296,7 +7316,7 @@
         <v>52</v>
       </c>
       <c r="G279" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H279" s="3"/>
     </row>
@@ -7392,7 +7412,7 @@
         <v>52</v>
       </c>
       <c r="G283" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H283" s="3"/>
     </row>
@@ -7416,7 +7436,7 @@
         <v>52</v>
       </c>
       <c r="G284" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H284" s="3"/>
     </row>
@@ -7440,7 +7460,7 @@
         <v>52</v>
       </c>
       <c r="G285" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H285" s="3"/>
     </row>
@@ -7512,7 +7532,7 @@
         <v>52</v>
       </c>
       <c r="G288" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H288" s="3"/>
     </row>
@@ -7536,7 +7556,7 @@
         <v>52</v>
       </c>
       <c r="G289" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H289" s="3"/>
     </row>
@@ -7560,7 +7580,7 @@
         <v>52</v>
       </c>
       <c r="G290" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H290" s="3"/>
     </row>
@@ -7608,7 +7628,7 @@
         <v>52</v>
       </c>
       <c r="G292" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H292" s="3"/>
     </row>
@@ -7632,7 +7652,7 @@
         <v>52</v>
       </c>
       <c r="G293" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H293" s="3"/>
     </row>
@@ -7656,7 +7676,7 @@
         <v>52</v>
       </c>
       <c r="G294" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H294" s="3"/>
     </row>
@@ -7680,7 +7700,7 @@
         <v>52</v>
       </c>
       <c r="G295" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H295" s="3"/>
     </row>
@@ -7728,7 +7748,7 @@
         <v>52</v>
       </c>
       <c r="G297" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H297" s="3"/>
     </row>
@@ -7800,7 +7820,7 @@
         <v>52</v>
       </c>
       <c r="G300" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H300" s="3"/>
     </row>
@@ -7848,7 +7868,7 @@
         <v>52</v>
       </c>
       <c r="G302" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H302" s="3"/>
     </row>
@@ -7872,7 +7892,7 @@
         <v>52</v>
       </c>
       <c r="G303" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H303" s="3"/>
     </row>
@@ -7896,7 +7916,7 @@
         <v>52</v>
       </c>
       <c r="G304" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H304" s="3"/>
     </row>
@@ -7968,7 +7988,7 @@
         <v>53</v>
       </c>
       <c r="G307" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H307" s="3"/>
     </row>
@@ -7992,7 +8012,7 @@
         <v>53</v>
       </c>
       <c r="G308" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H308" s="3"/>
     </row>
@@ -8016,7 +8036,7 @@
         <v>53</v>
       </c>
       <c r="G309" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H309" s="3"/>
     </row>
@@ -8040,7 +8060,7 @@
         <v>53</v>
       </c>
       <c r="G310" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H310" s="3"/>
     </row>
@@ -8112,7 +8132,7 @@
         <v>53</v>
       </c>
       <c r="G313" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H313" s="3"/>
     </row>
@@ -8232,7 +8252,7 @@
         <v>53</v>
       </c>
       <c r="G318" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H318" s="3"/>
     </row>
@@ -8256,7 +8276,7 @@
         <v>56</v>
       </c>
       <c r="G319" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H319" s="3"/>
     </row>
@@ -8280,7 +8300,7 @@
         <v>56</v>
       </c>
       <c r="G320" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H320" s="3"/>
     </row>
@@ -8328,7 +8348,7 @@
         <v>56</v>
       </c>
       <c r="G322" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H322" s="3"/>
     </row>
@@ -8376,7 +8396,7 @@
         <v>56</v>
       </c>
       <c r="G324" s="4" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H324" s="3"/>
     </row>
@@ -8448,7 +8468,7 @@
         <v>56</v>
       </c>
       <c r="G327" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H327" s="3"/>
     </row>
@@ -8568,7 +8588,7 @@
         <v>56</v>
       </c>
       <c r="G332" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H332" s="3"/>
     </row>
@@ -8592,7 +8612,7 @@
         <v>56</v>
       </c>
       <c r="G333" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H333" s="3"/>
     </row>
@@ -8637,10 +8657,10 @@
         <v>56</v>
       </c>
       <c r="F335" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G335" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H335" s="3"/>
     </row>
@@ -8658,10 +8678,10 @@
         <v>65284</v>
       </c>
       <c r="E336" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F336" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G336" s="4" t="s">
         <v>37</v>
@@ -8682,13 +8702,13 @@
         <v>191067</v>
       </c>
       <c r="E337" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F337" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G337" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H337" s="3"/>
     </row>
@@ -8706,10 +8726,10 @@
         <v>8811</v>
       </c>
       <c r="E338" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F338" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G338" s="4" t="s">
         <v>54</v>
@@ -8730,10 +8750,10 @@
         <v>30730</v>
       </c>
       <c r="E339" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F339" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G339" s="4" t="s">
         <v>37</v>
@@ -8754,13 +8774,13 @@
         <v>133185</v>
       </c>
       <c r="E340" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F340" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G340" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H340" s="3"/>
     </row>
@@ -8778,13 +8798,13 @@
         <v>249609</v>
       </c>
       <c r="E341" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F341" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G341" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H341" s="3"/>
     </row>
@@ -8802,13 +8822,13 @@
         <v>248606</v>
       </c>
       <c r="E342" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F342" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G342" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H342" s="3"/>
     </row>
@@ -8826,10 +8846,10 @@
         <v>187153</v>
       </c>
       <c r="E343" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F343" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G343" s="4" t="s">
         <v>37</v>
@@ -8850,13 +8870,13 @@
         <v>270421</v>
       </c>
       <c r="E344" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F344" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G344" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H344" s="3"/>
     </row>
@@ -8874,10 +8894,10 @@
         <v>122027</v>
       </c>
       <c r="E345" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F345" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G345" s="4" t="s">
         <v>44</v>
@@ -8898,10 +8918,10 @@
         <v>97023</v>
       </c>
       <c r="E346" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F346" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G346" s="4" t="s">
         <v>37</v>
@@ -8922,10 +8942,10 @@
         <v>334439</v>
       </c>
       <c r="E347" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F347" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G347" s="4" t="s">
         <v>45</v>
@@ -8946,13 +8966,13 @@
         <v>270421</v>
       </c>
       <c r="E348" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F348" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G348" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="F348" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G348" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="H348" s="3"/>
     </row>
@@ -8970,7 +8990,7 @@
         <v>82004</v>
       </c>
       <c r="E349" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F349" s="4" t="s">
         <v>59</v>
@@ -8994,13 +9014,13 @@
         <v>123667</v>
       </c>
       <c r="E350" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F350" s="4" t="s">
         <v>59</v>
       </c>
       <c r="G350" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H350" s="3"/>
     </row>
@@ -9024,7 +9044,7 @@
         <v>59</v>
       </c>
       <c r="G351" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H351" s="3"/>
     </row>
@@ -9048,7 +9068,7 @@
         <v>59</v>
       </c>
       <c r="G352" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H352" s="3"/>
     </row>
@@ -9072,7 +9092,7 @@
         <v>59</v>
       </c>
       <c r="G353" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H353" s="3"/>
     </row>
@@ -9144,7 +9164,7 @@
         <v>59</v>
       </c>
       <c r="G356" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H356" s="3"/>
     </row>
@@ -9168,7 +9188,7 @@
         <v>59</v>
       </c>
       <c r="G357" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H357" s="3"/>
     </row>
@@ -9192,7 +9212,7 @@
         <v>60</v>
       </c>
       <c r="G358" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H358" s="3"/>
     </row>
@@ -9216,7 +9236,7 @@
         <v>60</v>
       </c>
       <c r="G359" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H359" s="3"/>
     </row>
@@ -9264,7 +9284,7 @@
         <v>60</v>
       </c>
       <c r="G361" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H361" s="3"/>
     </row>
@@ -9288,7 +9308,7 @@
         <v>60</v>
       </c>
       <c r="G362" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H362" s="3"/>
     </row>
@@ -9312,7 +9332,7 @@
         <v>60</v>
       </c>
       <c r="G363" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H363" s="3"/>
     </row>
@@ -9336,7 +9356,7 @@
         <v>60</v>
       </c>
       <c r="G364" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H364" s="3"/>
     </row>
@@ -9360,7 +9380,7 @@
         <v>60</v>
       </c>
       <c r="G365" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H365" s="3"/>
     </row>
@@ -9456,7 +9476,7 @@
         <v>60</v>
       </c>
       <c r="G369" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H369" s="3"/>
     </row>
@@ -9552,7 +9572,7 @@
         <v>60</v>
       </c>
       <c r="G373" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H373" s="3"/>
     </row>
@@ -9576,7 +9596,7 @@
         <v>60</v>
       </c>
       <c r="G374" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H374" s="3"/>
     </row>
@@ -9624,7 +9644,7 @@
         <v>61</v>
       </c>
       <c r="G376" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H376" s="3"/>
     </row>
@@ -9648,7 +9668,7 @@
         <v>61</v>
       </c>
       <c r="G377" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H377" s="3"/>
     </row>
@@ -9672,7 +9692,7 @@
         <v>61</v>
       </c>
       <c r="G378" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H378" s="3"/>
     </row>
@@ -9744,7 +9764,7 @@
         <v>61</v>
       </c>
       <c r="G381" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H381" s="3"/>
     </row>
@@ -9768,7 +9788,7 @@
         <v>61</v>
       </c>
       <c r="G382" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H382" s="3"/>
     </row>
@@ -9792,7 +9812,7 @@
         <v>61</v>
       </c>
       <c r="G383" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H383" s="3"/>
     </row>
@@ -9816,7 +9836,7 @@
         <v>61</v>
       </c>
       <c r="G384" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H384" s="3"/>
     </row>
@@ -9864,7 +9884,7 @@
         <v>61</v>
       </c>
       <c r="G386" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H386" s="3"/>
     </row>
@@ -9888,7 +9908,7 @@
         <v>61</v>
       </c>
       <c r="G387" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H387" s="3"/>
     </row>
@@ -9912,7 +9932,7 @@
         <v>61</v>
       </c>
       <c r="G388" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H388" s="3"/>
     </row>
@@ -9936,7 +9956,7 @@
         <v>61</v>
       </c>
       <c r="G389" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H389" s="3"/>
     </row>
@@ -9960,7 +9980,7 @@
         <v>61</v>
       </c>
       <c r="G390" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H390" s="3"/>
     </row>
@@ -9984,7 +10004,7 @@
         <v>61</v>
       </c>
       <c r="G391" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H391" s="3"/>
     </row>
@@ -10032,7 +10052,7 @@
         <v>61</v>
       </c>
       <c r="G393" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H393" s="3"/>
     </row>
@@ -10056,7 +10076,7 @@
         <v>61</v>
       </c>
       <c r="G394" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H394" s="3"/>
     </row>
@@ -10080,7 +10100,7 @@
         <v>61</v>
       </c>
       <c r="G395" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H395" s="3"/>
     </row>
@@ -10128,7 +10148,7 @@
         <v>62</v>
       </c>
       <c r="G397" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H397" s="3"/>
     </row>
@@ -10200,7 +10220,7 @@
         <v>62</v>
       </c>
       <c r="G400" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H400" s="3"/>
     </row>
@@ -10248,7 +10268,7 @@
         <v>62</v>
       </c>
       <c r="G402" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H402" s="3"/>
     </row>
@@ -10272,7 +10292,7 @@
         <v>62</v>
       </c>
       <c r="G403" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H403" s="3"/>
     </row>
@@ -10320,7 +10340,7 @@
         <v>62</v>
       </c>
       <c r="G405" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H405" s="3"/>
     </row>
@@ -10368,7 +10388,7 @@
         <v>62</v>
       </c>
       <c r="G407" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H407" s="3"/>
     </row>
@@ -10416,7 +10436,7 @@
         <v>62</v>
       </c>
       <c r="G409" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H409" s="3"/>
     </row>
@@ -10464,7 +10484,7 @@
         <v>62</v>
       </c>
       <c r="G411" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H411" s="3"/>
     </row>
@@ -10488,7 +10508,7 @@
         <v>62</v>
       </c>
       <c r="G412" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H412" s="3"/>
     </row>
@@ -10512,7 +10532,7 @@
         <v>62</v>
       </c>
       <c r="G413" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H413" s="3"/>
     </row>
@@ -10560,7 +10580,7 @@
         <v>62</v>
       </c>
       <c r="G415" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H415" s="3"/>
     </row>
@@ -10584,7 +10604,7 @@
         <v>62</v>
       </c>
       <c r="G416" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H416" s="3"/>
     </row>
@@ -10608,7 +10628,7 @@
         <v>62</v>
       </c>
       <c r="G417" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H417" s="3"/>
     </row>
@@ -10632,7 +10652,7 @@
         <v>62</v>
       </c>
       <c r="G418" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H418" s="3"/>
     </row>
@@ -10680,7 +10700,7 @@
         <v>62</v>
       </c>
       <c r="G420" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H420" s="3"/>
     </row>
@@ -10728,7 +10748,7 @@
         <v>62</v>
       </c>
       <c r="G422" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H422" s="3"/>
     </row>
@@ -10776,7 +10796,7 @@
         <v>63</v>
       </c>
       <c r="G424" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H424" s="3"/>
     </row>
@@ -10800,7 +10820,7 @@
         <v>63</v>
       </c>
       <c r="G425" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H425" s="3"/>
     </row>
@@ -10848,7 +10868,7 @@
         <v>63</v>
       </c>
       <c r="G427" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H427" s="3"/>
     </row>
@@ -10872,7 +10892,7 @@
         <v>63</v>
       </c>
       <c r="G428" s="4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H428" s="3"/>
     </row>
@@ -10896,7 +10916,7 @@
         <v>63</v>
       </c>
       <c r="G429" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H429" s="3"/>
     </row>
@@ -10944,7 +10964,7 @@
         <v>63</v>
       </c>
       <c r="G431" s="4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H431" s="3"/>
     </row>
@@ -10968,7 +10988,7 @@
         <v>63</v>
       </c>
       <c r="G432" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H432" s="3"/>
     </row>
@@ -10992,7 +11012,7 @@
         <v>63</v>
       </c>
       <c r="G433" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H433" s="3"/>
     </row>
@@ -11016,7 +11036,7 @@
         <v>63</v>
       </c>
       <c r="G434" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H434" s="3"/>
     </row>
@@ -11040,7 +11060,7 @@
         <v>63</v>
       </c>
       <c r="G435" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H435" s="3"/>
     </row>
@@ -11064,7 +11084,7 @@
         <v>63</v>
       </c>
       <c r="G436" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H436" s="3"/>
     </row>
@@ -11112,7 +11132,7 @@
         <v>63</v>
       </c>
       <c r="G438" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H438" s="3"/>
     </row>
@@ -11136,7 +11156,7 @@
         <v>63</v>
       </c>
       <c r="G439" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H439" s="3"/>
     </row>
@@ -11256,7 +11276,7 @@
         <v>64</v>
       </c>
       <c r="G444" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H444" s="3"/>
     </row>
@@ -11304,7 +11324,7 @@
         <v>64</v>
       </c>
       <c r="G446" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H446" s="3"/>
     </row>
@@ -11376,7 +11396,7 @@
         <v>64</v>
       </c>
       <c r="G449" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H449" s="3"/>
     </row>
@@ -11400,7 +11420,7 @@
         <v>64</v>
       </c>
       <c r="G450" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H450" s="3"/>
     </row>
@@ -11424,7 +11444,7 @@
         <v>64</v>
       </c>
       <c r="G451" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H451" s="3"/>
     </row>
@@ -11472,7 +11492,7 @@
         <v>64</v>
       </c>
       <c r="G453" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H453" s="3"/>
     </row>
@@ -11496,7 +11516,7 @@
         <v>64</v>
       </c>
       <c r="G454" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H454" s="3"/>
     </row>
@@ -11544,7 +11564,7 @@
         <v>65</v>
       </c>
       <c r="G456" s="4" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H456" s="3"/>
     </row>
@@ -11568,7 +11588,7 @@
         <v>65</v>
       </c>
       <c r="G457" s="4" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H457" s="3"/>
     </row>
@@ -11616,7 +11636,7 @@
         <v>65</v>
       </c>
       <c r="G459" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H459" s="3"/>
     </row>
@@ -11688,7 +11708,7 @@
         <v>65</v>
       </c>
       <c r="G462" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H462" s="3"/>
     </row>
@@ -11712,7 +11732,7 @@
         <v>65</v>
       </c>
       <c r="G463" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H463" s="3"/>
     </row>
@@ -11736,7 +11756,7 @@
         <v>65</v>
       </c>
       <c r="G464" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H464" s="3"/>
     </row>
@@ -11760,7 +11780,7 @@
         <v>65</v>
       </c>
       <c r="G465" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H465" s="3"/>
     </row>
@@ -11808,7 +11828,7 @@
         <v>65</v>
       </c>
       <c r="G467" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H467" s="3"/>
     </row>
@@ -11832,7 +11852,7 @@
         <v>65</v>
       </c>
       <c r="G468" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H468" s="3"/>
     </row>
@@ -11856,7 +11876,7 @@
         <v>65</v>
       </c>
       <c r="G469" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H469" s="3"/>
     </row>
@@ -11880,7 +11900,7 @@
         <v>65</v>
       </c>
       <c r="G470" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H470" s="3"/>
     </row>
@@ -11904,7 +11924,7 @@
         <v>65</v>
       </c>
       <c r="G471" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H471" s="3"/>
     </row>
@@ -11952,7 +11972,7 @@
         <v>65</v>
       </c>
       <c r="G473" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H473" s="3"/>
     </row>
@@ -11976,7 +11996,7 @@
         <v>65</v>
       </c>
       <c r="G474" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H474" s="3"/>
     </row>
@@ -12000,7 +12020,7 @@
         <v>65</v>
       </c>
       <c r="G475" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H475" s="3"/>
     </row>
@@ -12048,7 +12068,7 @@
         <v>66</v>
       </c>
       <c r="G477" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H477" s="3"/>
     </row>
@@ -12072,7 +12092,7 @@
         <v>66</v>
       </c>
       <c r="G478" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H478" s="3"/>
     </row>
@@ -12120,7 +12140,7 @@
         <v>66</v>
       </c>
       <c r="G480" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H480" s="3"/>
     </row>
@@ -12168,7 +12188,7 @@
         <v>66</v>
       </c>
       <c r="G482" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H482" s="3"/>
     </row>
@@ -12192,7 +12212,7 @@
         <v>66</v>
       </c>
       <c r="G483" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H483" s="3"/>
     </row>
@@ -12264,7 +12284,7 @@
         <v>66</v>
       </c>
       <c r="G486" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H486" s="3"/>
     </row>
@@ -12288,7 +12308,7 @@
         <v>66</v>
       </c>
       <c r="G487" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H487" s="3"/>
     </row>
@@ -12336,7 +12356,7 @@
         <v>66</v>
       </c>
       <c r="G489" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H489" s="3"/>
     </row>
@@ -12360,7 +12380,7 @@
         <v>66</v>
       </c>
       <c r="G490" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H490" s="3"/>
     </row>
@@ -12384,7 +12404,7 @@
         <v>66</v>
       </c>
       <c r="G491" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H491" s="3"/>
     </row>
@@ -12408,7 +12428,7 @@
         <v>66</v>
       </c>
       <c r="G492" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H492" s="3"/>
     </row>
@@ -12432,7 +12452,7 @@
         <v>66</v>
       </c>
       <c r="G493" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H493" s="3"/>
     </row>
@@ -12456,7 +12476,7 @@
         <v>68</v>
       </c>
       <c r="G494" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H494" s="3"/>
     </row>
@@ -12504,7 +12524,7 @@
         <v>68</v>
       </c>
       <c r="G496" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H496" s="3"/>
     </row>
@@ -12528,7 +12548,7 @@
         <v>68</v>
       </c>
       <c r="G497" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H497" s="3"/>
     </row>
@@ -12552,7 +12572,7 @@
         <v>68</v>
       </c>
       <c r="G498" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H498" s="3"/>
     </row>
@@ -12576,7 +12596,7 @@
         <v>68</v>
       </c>
       <c r="G499" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H499" s="3"/>
     </row>
@@ -12624,7 +12644,7 @@
         <v>68</v>
       </c>
       <c r="G501" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H501" s="3"/>
     </row>
@@ -12672,7 +12692,7 @@
         <v>68</v>
       </c>
       <c r="G503" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H503" s="3"/>
     </row>
@@ -12720,7 +12740,7 @@
         <v>68</v>
       </c>
       <c r="G505" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H505" s="3"/>
     </row>
@@ -12768,7 +12788,7 @@
         <v>68</v>
       </c>
       <c r="G507" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H507" s="3"/>
     </row>
@@ -12816,7 +12836,7 @@
         <v>68</v>
       </c>
       <c r="G509" s="4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H509" s="3"/>
     </row>
@@ -12912,7 +12932,7 @@
         <v>68</v>
       </c>
       <c r="G513" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H513" s="3"/>
     </row>
@@ -12936,7 +12956,7 @@
         <v>68</v>
       </c>
       <c r="G514" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H514" s="3"/>
     </row>
@@ -12960,7 +12980,7 @@
         <v>68</v>
       </c>
       <c r="G515" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H515" s="3"/>
     </row>
@@ -12984,7 +13004,7 @@
         <v>69</v>
       </c>
       <c r="G516" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H516" s="3"/>
     </row>
@@ -13056,7 +13076,7 @@
         <v>69</v>
       </c>
       <c r="G519" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H519" s="3"/>
     </row>
@@ -13104,7 +13124,7 @@
         <v>69</v>
       </c>
       <c r="G521" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H521" s="3"/>
     </row>
@@ -13128,7 +13148,7 @@
         <v>69</v>
       </c>
       <c r="G522" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H522" s="3"/>
     </row>
@@ -13176,7 +13196,7 @@
         <v>69</v>
       </c>
       <c r="G524" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H524" s="3"/>
     </row>
@@ -13224,7 +13244,7 @@
         <v>69</v>
       </c>
       <c r="G526" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H526" s="3"/>
     </row>
@@ -13248,7 +13268,7 @@
         <v>69</v>
       </c>
       <c r="G527" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H527" s="3"/>
     </row>
@@ -13272,7 +13292,7 @@
         <v>69</v>
       </c>
       <c r="G528" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H528" s="3"/>
     </row>
@@ -13320,7 +13340,7 @@
         <v>69</v>
       </c>
       <c r="G530" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H530" s="3"/>
     </row>
@@ -13344,7 +13364,7 @@
         <v>69</v>
       </c>
       <c r="G531" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H531" s="3"/>
     </row>
@@ -13368,7 +13388,7 @@
         <v>69</v>
       </c>
       <c r="G532" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H532" s="3"/>
     </row>
@@ -13392,7 +13412,7 @@
         <v>69</v>
       </c>
       <c r="G533" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H533" s="3"/>
     </row>
@@ -13416,7 +13436,7 @@
         <v>69</v>
       </c>
       <c r="G534" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H534" s="3"/>
     </row>
@@ -13440,7 +13460,7 @@
         <v>69</v>
       </c>
       <c r="G535" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H535" s="3"/>
     </row>
@@ -13464,7 +13484,7 @@
         <v>69</v>
       </c>
       <c r="G536" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H536" s="3"/>
     </row>
@@ -13488,7 +13508,7 @@
         <v>69</v>
       </c>
       <c r="G537" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H537" s="3"/>
     </row>
@@ -13512,7 +13532,7 @@
         <v>69</v>
       </c>
       <c r="G538" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H538" s="3"/>
     </row>
@@ -13536,7 +13556,7 @@
         <v>69</v>
       </c>
       <c r="G539" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H539" s="3"/>
     </row>
@@ -13560,7 +13580,7 @@
         <v>69</v>
       </c>
       <c r="G540" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H540" s="3"/>
     </row>
@@ -13584,7 +13604,7 @@
         <v>69</v>
       </c>
       <c r="G541" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H541" s="3"/>
     </row>
@@ -13632,7 +13652,7 @@
         <v>69</v>
       </c>
       <c r="G543" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H543" s="3"/>
     </row>
@@ -13656,7 +13676,7 @@
         <v>69</v>
       </c>
       <c r="G544" s="4" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="H544" s="3"/>
     </row>
@@ -13704,7 +13724,7 @@
         <v>69</v>
       </c>
       <c r="G546" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H546" s="3"/>
     </row>
@@ -13752,7 +13772,7 @@
         <v>69</v>
       </c>
       <c r="G548" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H548" s="3"/>
     </row>
@@ -13776,7 +13796,7 @@
         <v>69</v>
       </c>
       <c r="G549" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H549" s="3"/>
     </row>
@@ -13800,7 +13820,7 @@
         <v>69</v>
       </c>
       <c r="G550" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H550" s="3"/>
     </row>
@@ -13824,7 +13844,7 @@
         <v>69</v>
       </c>
       <c r="G551" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H551" s="3"/>
     </row>
@@ -13845,7 +13865,7 @@
         <v>69</v>
       </c>
       <c r="F552" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G552" s="4" t="s">
         <v>38</v>
@@ -13866,13 +13886,13 @@
         <v>176385</v>
       </c>
       <c r="E553" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F553" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G553" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H553" s="3"/>
     </row>
@@ -13890,10 +13910,10 @@
         <v>92101</v>
       </c>
       <c r="E554" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F554" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G554" s="4" t="s">
         <v>37</v>
@@ -13914,13 +13934,13 @@
         <v>213076</v>
       </c>
       <c r="E555" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F555" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G555" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H555" s="3"/>
     </row>
@@ -13938,13 +13958,13 @@
         <v>85523</v>
       </c>
       <c r="E556" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F556" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G556" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H556" s="3"/>
     </row>
@@ -13962,13 +13982,13 @@
         <v>2862</v>
       </c>
       <c r="E557" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F557" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G557" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H557" s="3"/>
     </row>
@@ -13986,13 +14006,13 @@
         <v>178599</v>
       </c>
       <c r="E558" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F558" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G558" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H558" s="3"/>
     </row>
@@ -14010,13 +14030,13 @@
         <v>113944</v>
       </c>
       <c r="E559" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F559" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G559" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H559" s="3"/>
     </row>
@@ -14034,13 +14054,13 @@
         <v>100988</v>
       </c>
       <c r="E560" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F560" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G560" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H560" s="3"/>
     </row>
@@ -14058,13 +14078,13 @@
         <v>336899</v>
       </c>
       <c r="E561" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F561" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G561" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H561" s="3"/>
     </row>
@@ -14082,10 +14102,10 @@
         <v>336900</v>
       </c>
       <c r="E562" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F562" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G562" s="4" t="s">
         <v>38</v>
@@ -14106,13 +14126,13 @@
         <v>187232</v>
       </c>
       <c r="E563" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F563" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G563" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H563" s="3"/>
     </row>
@@ -14130,13 +14150,13 @@
         <v>142207</v>
       </c>
       <c r="E564" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F564" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G564" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H564" s="3"/>
     </row>
@@ -14154,13 +14174,13 @@
         <v>21033</v>
       </c>
       <c r="E565" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F565" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G565" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H565" s="3"/>
     </row>
@@ -14178,13 +14198,13 @@
         <v>15890</v>
       </c>
       <c r="E566" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F566" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G566" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H566" s="3"/>
     </row>
@@ -14202,13 +14222,13 @@
         <v>37473</v>
       </c>
       <c r="E567" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F567" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G567" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H567" s="3"/>
     </row>
@@ -14226,13 +14246,13 @@
         <v>267131</v>
       </c>
       <c r="E568" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F568" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G568" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H568" s="3"/>
     </row>
@@ -14250,13 +14270,13 @@
         <v>207469</v>
       </c>
       <c r="E569" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F569" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G569" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H569" s="3"/>
     </row>
@@ -14274,13 +14294,13 @@
         <v>54104</v>
       </c>
       <c r="E570" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F570" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G570" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H570" s="3"/>
     </row>
@@ -14298,10 +14318,10 @@
         <v>284089</v>
       </c>
       <c r="E571" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F571" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G571" s="4" t="s">
         <v>37</v>
@@ -14322,10 +14342,10 @@
         <v>263445</v>
       </c>
       <c r="E572" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F572" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G572" s="4" t="s">
         <v>37</v>
@@ -14346,13 +14366,13 @@
         <v>336902</v>
       </c>
       <c r="E573" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F573" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G573" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H573" s="3"/>
     </row>
@@ -14370,13 +14390,13 @@
         <v>41384</v>
       </c>
       <c r="E574" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F574" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G574" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H574" s="3"/>
     </row>
@@ -14394,10 +14414,10 @@
         <v>253133</v>
       </c>
       <c r="E575" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F575" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G575" s="4" t="s">
         <v>37</v>
@@ -14418,13 +14438,13 @@
         <v>192265</v>
       </c>
       <c r="E576" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F576" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G576" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H576" s="3"/>
     </row>
@@ -14442,10 +14462,10 @@
         <v>134451</v>
       </c>
       <c r="E577" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F577" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G577" s="4" t="s">
         <v>37</v>
@@ -14466,13 +14486,13 @@
         <v>37227</v>
       </c>
       <c r="E578" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F578" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G578" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H578" s="3"/>
     </row>
@@ -14490,13 +14510,13 @@
         <v>336908</v>
       </c>
       <c r="E579" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F579" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G579" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H579" s="3"/>
     </row>
@@ -14514,13 +14534,13 @@
         <v>63465</v>
       </c>
       <c r="E580" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F580" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G580" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H580" s="3"/>
     </row>
@@ -14538,10 +14558,10 @@
         <v>336911</v>
       </c>
       <c r="E581" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F581" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G581" s="4" t="s">
         <v>38</v>
@@ -14562,13 +14582,13 @@
         <v>71912</v>
       </c>
       <c r="E582" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F582" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G582" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H582" s="3"/>
     </row>
@@ -14586,13 +14606,13 @@
         <v>6142</v>
       </c>
       <c r="E583" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F583" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G583" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H583" s="3"/>
     </row>
@@ -14610,10 +14630,10 @@
         <v>18433</v>
       </c>
       <c r="E584" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F584" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G584" s="4" t="s">
         <v>37</v>
@@ -14634,10 +14654,10 @@
         <v>38347</v>
       </c>
       <c r="E585" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F585" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G585" s="4" t="s">
         <v>37</v>
@@ -14658,13 +14678,13 @@
         <v>336827</v>
       </c>
       <c r="E586" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F586" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G586" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H586" s="3"/>
     </row>
@@ -14682,13 +14702,13 @@
         <v>35376</v>
       </c>
       <c r="E587" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F587" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G587" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H587" s="3"/>
     </row>
@@ -14706,10 +14726,10 @@
         <v>250621</v>
       </c>
       <c r="E588" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F588" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G588" s="4" t="s">
         <v>37</v>
@@ -14730,10 +14750,10 @@
         <v>332408</v>
       </c>
       <c r="E589" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F589" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G589" s="4" t="s">
         <v>37</v>
@@ -14754,10 +14774,10 @@
         <v>97255</v>
       </c>
       <c r="E590" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F590" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G590" s="4" t="s">
         <v>38</v>
@@ -14778,13 +14798,13 @@
         <v>40348</v>
       </c>
       <c r="E591" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F591" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G591" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H591" s="3"/>
     </row>
@@ -14802,10 +14822,10 @@
         <v>11662</v>
       </c>
       <c r="E592" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F592" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G592" s="4" t="s">
         <v>37</v>
@@ -14826,10 +14846,10 @@
         <v>263486</v>
       </c>
       <c r="E593" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F593" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G593" s="4" t="s">
         <v>37</v>
@@ -14850,13 +14870,13 @@
         <v>219027</v>
       </c>
       <c r="E594" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F594" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G594" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H594" s="3"/>
     </row>
@@ -14874,10 +14894,10 @@
         <v>243393</v>
       </c>
       <c r="E595" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F595" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G595" s="4" t="s">
         <v>37</v>
@@ -14898,10 +14918,10 @@
         <v>164012</v>
       </c>
       <c r="E596" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F596" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G596" s="4" t="s">
         <v>37</v>
@@ -14922,13 +14942,13 @@
         <v>91899</v>
       </c>
       <c r="E597" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F597" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G597" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H597" s="3"/>
     </row>
@@ -14946,13 +14966,13 @@
         <v>223746</v>
       </c>
       <c r="E598" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F598" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G598" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H598" s="3"/>
     </row>
@@ -14970,10 +14990,10 @@
         <v>235981</v>
       </c>
       <c r="E599" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F599" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G599" s="4" t="s">
         <v>38</v>
@@ -14994,10 +15014,10 @@
         <v>35788</v>
       </c>
       <c r="E600" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F600" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G600" s="4" t="s">
         <v>37</v>
@@ -15018,13 +15038,13 @@
         <v>270878</v>
       </c>
       <c r="E601" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F601" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G601" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H601" s="3"/>
     </row>
@@ -15042,13 +15062,13 @@
         <v>275666</v>
       </c>
       <c r="E602" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F602" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G602" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H602" s="3"/>
     </row>
@@ -15066,10 +15086,10 @@
         <v>270876</v>
       </c>
       <c r="E603" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F603" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G603" s="4" t="s">
         <v>37</v>
@@ -15090,10 +15110,10 @@
         <v>261904</v>
       </c>
       <c r="E604" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F604" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G604" s="4" t="s">
         <v>37</v>
@@ -15114,13 +15134,13 @@
         <v>337002</v>
       </c>
       <c r="E605" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F605" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G605" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H605" s="3"/>
     </row>
@@ -15138,10 +15158,10 @@
         <v>275793</v>
       </c>
       <c r="E606" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F606" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G606" s="4" t="s">
         <v>37</v>
@@ -15162,10 +15182,10 @@
         <v>224310</v>
       </c>
       <c r="E607" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F607" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G607" s="4" t="s">
         <v>37</v>
@@ -15186,10 +15206,10 @@
         <v>45920</v>
       </c>
       <c r="E608" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F608" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G608" s="4" t="s">
         <v>45</v>
@@ -15210,10 +15230,10 @@
         <v>331461</v>
       </c>
       <c r="E609" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F609" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G609" s="4" t="s">
         <v>45</v>
@@ -15234,10 +15254,10 @@
         <v>21416</v>
       </c>
       <c r="E610" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F610" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G610" s="4" t="s">
         <v>37</v>
@@ -15258,10 +15278,10 @@
         <v>8847</v>
       </c>
       <c r="E611" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F611" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G611" s="4" t="s">
         <v>45</v>
@@ -15282,15 +15302,3735 @@
         <v>24607</v>
       </c>
       <c r="E612" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F612" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G612" s="4" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H612" s="3"/>
+    </row>
+    <row r="613" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A613" s="4">
+        <v>334171</v>
+      </c>
+      <c r="B613" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C613" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D613" s="4">
+        <v>313202</v>
+      </c>
+      <c r="E613" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F613" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G613" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H613" s="3"/>
+    </row>
+    <row r="614" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A614" s="4">
+        <v>334212</v>
+      </c>
+      <c r="B614" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C614" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D614" s="4">
+        <v>34720</v>
+      </c>
+      <c r="E614" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F614" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G614" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H614" s="3"/>
+    </row>
+    <row r="615" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A615" s="4">
+        <v>334227</v>
+      </c>
+      <c r="B615" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C615" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D615" s="4">
+        <v>241017</v>
+      </c>
+      <c r="E615" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F615" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G615" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H615" s="3"/>
+    </row>
+    <row r="616" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A616" s="4">
+        <v>334233</v>
+      </c>
+      <c r="B616" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C616" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D616" s="4">
+        <v>317492</v>
+      </c>
+      <c r="E616" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F616" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G616" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H616" s="3"/>
+    </row>
+    <row r="617" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A617" s="4">
+        <v>334235</v>
+      </c>
+      <c r="B617" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C617" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D617" s="4">
+        <v>45905</v>
+      </c>
+      <c r="E617" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F617" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G617" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H617" s="3"/>
+    </row>
+    <row r="618" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A618" s="4">
+        <v>334241</v>
+      </c>
+      <c r="B618" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C618" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D618" s="4">
+        <v>319035</v>
+      </c>
+      <c r="E618" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F618" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G618" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H618" s="3"/>
+    </row>
+    <row r="619" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A619" s="4">
+        <v>334243</v>
+      </c>
+      <c r="B619" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C619" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D619" s="4">
+        <v>73637</v>
+      </c>
+      <c r="E619" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F619" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G619" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H619" s="3"/>
+    </row>
+    <row r="620" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A620" s="4">
+        <v>334245</v>
+      </c>
+      <c r="B620" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C620" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D620" s="4">
+        <v>102969</v>
+      </c>
+      <c r="E620" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F620" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G620" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H620" s="3"/>
+    </row>
+    <row r="621" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A621" s="4">
+        <v>334261</v>
+      </c>
+      <c r="B621" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C621" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D621" s="4">
+        <v>2719</v>
+      </c>
+      <c r="E621" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F621" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G621" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H621" s="3"/>
+    </row>
+    <row r="622" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A622" s="4">
+        <v>334262</v>
+      </c>
+      <c r="B622" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C622" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D622" s="4">
+        <v>5186</v>
+      </c>
+      <c r="E622" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F622" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G622" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H622" s="3"/>
+    </row>
+    <row r="623" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A623" s="4">
+        <v>334265</v>
+      </c>
+      <c r="B623" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C623" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D623" s="4">
+        <v>252066</v>
+      </c>
+      <c r="E623" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F623" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G623" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H623" s="3"/>
+    </row>
+    <row r="624" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A624" s="4">
+        <v>334313</v>
+      </c>
+      <c r="B624" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C624" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D624" s="4">
+        <v>316788</v>
+      </c>
+      <c r="E624" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F624" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G624" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H624" s="3"/>
+    </row>
+    <row r="625" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A625" s="4">
+        <v>334363</v>
+      </c>
+      <c r="B625" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C625" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D625" s="4">
+        <v>97310</v>
+      </c>
+      <c r="E625" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F625" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G625" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H625" s="3"/>
+    </row>
+    <row r="626" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A626" s="4">
+        <v>334432</v>
+      </c>
+      <c r="B626" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C626" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D626" s="4">
+        <v>271484</v>
+      </c>
+      <c r="E626" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F626" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G626" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H626" s="3"/>
+    </row>
+    <row r="627" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A627" s="4">
+        <v>334439</v>
+      </c>
+      <c r="B627" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C627" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D627" s="4">
+        <v>21531</v>
+      </c>
+      <c r="E627" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F627" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G627" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H627" s="3"/>
+    </row>
+    <row r="628" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A628" s="4">
+        <v>334451</v>
+      </c>
+      <c r="B628" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C628" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D628" s="4">
+        <v>8696</v>
+      </c>
+      <c r="E628" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F628" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G628" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H628" s="3"/>
+    </row>
+    <row r="629" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A629" s="4">
+        <v>334471</v>
+      </c>
+      <c r="B629" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C629" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D629" s="4">
+        <v>47616</v>
+      </c>
+      <c r="E629" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F629" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G629" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H629" s="3"/>
+    </row>
+    <row r="630" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A630" s="4">
+        <v>334541</v>
+      </c>
+      <c r="B630" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C630" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D630" s="4">
+        <v>92004</v>
+      </c>
+      <c r="E630" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F630" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G630" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H630" s="3"/>
+    </row>
+    <row r="631" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A631" s="4">
+        <v>334542</v>
+      </c>
+      <c r="B631" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C631" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D631" s="4">
+        <v>228601</v>
+      </c>
+      <c r="E631" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F631" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G631" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H631" s="3"/>
+    </row>
+    <row r="632" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A632" s="4">
+        <v>334552</v>
+      </c>
+      <c r="B632" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C632" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D632" s="4">
+        <v>2576</v>
+      </c>
+      <c r="E632" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F632" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G632" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H632" s="3"/>
+    </row>
+    <row r="633" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A633" s="4">
+        <v>334574</v>
+      </c>
+      <c r="B633" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C633" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D633" s="4">
+        <v>54784</v>
+      </c>
+      <c r="E633" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F633" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G633" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H633" s="3"/>
+    </row>
+    <row r="634" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A634" s="4">
+        <v>334575</v>
+      </c>
+      <c r="B634" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C634" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D634" s="4">
+        <v>1723</v>
+      </c>
+      <c r="E634" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F634" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G634" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H634" s="3"/>
+    </row>
+    <row r="635" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A635" s="4">
+        <v>334580</v>
+      </c>
+      <c r="B635" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C635" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D635" s="4">
+        <v>21404</v>
+      </c>
+      <c r="E635" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F635" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G635" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H635" s="3"/>
+    </row>
+    <row r="636" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A636" s="4">
+        <v>334585</v>
+      </c>
+      <c r="B636" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C636" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D636" s="4">
+        <v>279114</v>
+      </c>
+      <c r="E636" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F636" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G636" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H636" s="3"/>
+    </row>
+    <row r="637" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A637" s="4">
+        <v>334596</v>
+      </c>
+      <c r="B637" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C637" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D637" s="4">
+        <v>73524</v>
+      </c>
+      <c r="E637" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F637" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G637" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H637" s="3"/>
+    </row>
+    <row r="638" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A638" s="4">
+        <v>334600</v>
+      </c>
+      <c r="B638" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C638" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D638" s="4">
+        <v>100492</v>
+      </c>
+      <c r="E638" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F638" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G638" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H638" s="3"/>
+    </row>
+    <row r="639" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A639" s="4">
+        <v>334608</v>
+      </c>
+      <c r="B639" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C639" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D639" s="4">
+        <v>29367</v>
+      </c>
+      <c r="E639" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F639" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G639" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H639" s="3"/>
+    </row>
+    <row r="640" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A640" s="4">
+        <v>334614</v>
+      </c>
+      <c r="B640" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C640" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D640" s="4">
+        <v>38540</v>
+      </c>
+      <c r="E640" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F640" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G640" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H640" s="3"/>
+    </row>
+    <row r="641" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A641" s="4">
+        <v>334705</v>
+      </c>
+      <c r="B641" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C641" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D641" s="4">
+        <v>52773</v>
+      </c>
+      <c r="E641" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F641" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G641" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H641" s="3"/>
+    </row>
+    <row r="642" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A642" s="4">
+        <v>334800</v>
+      </c>
+      <c r="B642" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C642" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D642" s="4">
+        <v>8122</v>
+      </c>
+      <c r="E642" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F642" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G642" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H642" s="3"/>
+    </row>
+    <row r="643" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A643" s="4">
+        <v>334803</v>
+      </c>
+      <c r="B643" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C643" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D643" s="4">
+        <v>21118</v>
+      </c>
+      <c r="E643" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F643" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G643" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H643" s="3"/>
+    </row>
+    <row r="644" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A644" s="4">
+        <v>334836</v>
+      </c>
+      <c r="B644" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C644" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D644" s="4">
+        <v>337260</v>
+      </c>
+      <c r="E644" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F644" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G644" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H644" s="3"/>
+    </row>
+    <row r="645" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A645" s="4">
+        <v>334849</v>
+      </c>
+      <c r="B645" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C645" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D645" s="4">
+        <v>174489</v>
+      </c>
+      <c r="E645" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F645" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G645" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H645" s="3"/>
+    </row>
+    <row r="646" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A646" s="4">
+        <v>334874</v>
+      </c>
+      <c r="B646" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C646" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D646" s="4">
+        <v>202147</v>
+      </c>
+      <c r="E646" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F646" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G646" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H646" s="3"/>
+    </row>
+    <row r="647" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A647" s="4">
+        <v>334892</v>
+      </c>
+      <c r="B647" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C647" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D647" s="4">
+        <v>328429</v>
+      </c>
+      <c r="E647" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F647" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G647" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H647" s="3"/>
+    </row>
+    <row r="648" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A648" s="4">
+        <v>334925</v>
+      </c>
+      <c r="B648" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C648" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D648" s="4">
+        <v>136360</v>
+      </c>
+      <c r="E648" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F648" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G648" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H648" s="3"/>
+    </row>
+    <row r="649" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A649" s="4">
+        <v>334944</v>
+      </c>
+      <c r="B649" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C649" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D649" s="4">
+        <v>24247</v>
+      </c>
+      <c r="E649" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F649" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G649" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H649" s="3"/>
+    </row>
+    <row r="650" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A650" s="4">
+        <v>334949</v>
+      </c>
+      <c r="B650" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C650" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D650" s="4">
+        <v>34388</v>
+      </c>
+      <c r="E650" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F650" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G650" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H650" s="3"/>
+    </row>
+    <row r="651" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A651" s="4">
+        <v>334950</v>
+      </c>
+      <c r="B651" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C651" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D651" s="4">
+        <v>18968</v>
+      </c>
+      <c r="E651" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F651" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G651" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H651" s="3"/>
+    </row>
+    <row r="652" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A652" s="4">
+        <v>334957</v>
+      </c>
+      <c r="B652" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C652" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D652" s="4">
+        <v>254487</v>
+      </c>
+      <c r="E652" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F652" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G652" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H652" s="3"/>
+    </row>
+    <row r="653" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A653" s="4">
+        <v>334959</v>
+      </c>
+      <c r="B653" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C653" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D653" s="4">
+        <v>312949</v>
+      </c>
+      <c r="E653" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F653" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G653" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H653" s="3"/>
+    </row>
+    <row r="654" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A654" s="4">
+        <v>334962</v>
+      </c>
+      <c r="B654" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C654" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D654" s="4">
+        <v>309076</v>
+      </c>
+      <c r="E654" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F654" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G654" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H654" s="3"/>
+    </row>
+    <row r="655" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A655" s="4">
+        <v>334964</v>
+      </c>
+      <c r="B655" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C655" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D655" s="4">
+        <v>298231</v>
+      </c>
+      <c r="E655" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F655" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G655" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H655" s="3"/>
+    </row>
+    <row r="656" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A656" s="4">
+        <v>334971</v>
+      </c>
+      <c r="B656" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C656" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D656" s="4">
+        <v>337084</v>
+      </c>
+      <c r="E656" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F656" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G656" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H656" s="3"/>
+    </row>
+    <row r="657" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A657" s="4">
+        <v>335018</v>
+      </c>
+      <c r="B657" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C657" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D657" s="4">
+        <v>337298</v>
+      </c>
+      <c r="E657" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F657" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G657" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H657" s="3"/>
+    </row>
+    <row r="658" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A658" s="4">
+        <v>335041</v>
+      </c>
+      <c r="B658" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C658" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D658" s="4">
+        <v>272982</v>
+      </c>
+      <c r="E658" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F658" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G658" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H658" s="3"/>
+    </row>
+    <row r="659" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A659" s="4">
+        <v>335100</v>
+      </c>
+      <c r="B659" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C659" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D659" s="4">
+        <v>177864</v>
+      </c>
+      <c r="E659" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F659" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G659" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H659" s="3"/>
+    </row>
+    <row r="660" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A660" s="4">
+        <v>335107</v>
+      </c>
+      <c r="B660" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C660" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D660" s="4">
+        <v>337343</v>
+      </c>
+      <c r="E660" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F660" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G660" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H660" s="3"/>
+    </row>
+    <row r="661" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A661" s="4">
+        <v>335113</v>
+      </c>
+      <c r="B661" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C661" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D661" s="4">
+        <v>184635</v>
+      </c>
+      <c r="E661" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F661" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G661" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H661" s="3"/>
+    </row>
+    <row r="662" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A662" s="4">
+        <v>335115</v>
+      </c>
+      <c r="B662" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C662" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D662" s="4">
+        <v>329815</v>
+      </c>
+      <c r="E662" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F662" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G662" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H662" s="3"/>
+    </row>
+    <row r="663" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A663" s="4">
+        <v>335117</v>
+      </c>
+      <c r="B663" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C663" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D663" s="4">
+        <v>66713</v>
+      </c>
+      <c r="E663" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F663" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G663" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H663" s="3"/>
+    </row>
+    <row r="664" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A664" s="4">
+        <v>335125</v>
+      </c>
+      <c r="B664" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C664" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D664" s="4">
+        <v>329406</v>
+      </c>
+      <c r="E664" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F664" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G664" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H664" s="3"/>
+    </row>
+    <row r="665" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A665" s="4">
+        <v>335135</v>
+      </c>
+      <c r="B665" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C665" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D665" s="4">
+        <v>88070</v>
+      </c>
+      <c r="E665" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F665" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G665" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H665" s="3"/>
+    </row>
+    <row r="666" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A666" s="4">
+        <v>335178</v>
+      </c>
+      <c r="B666" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C666" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D666" s="4">
+        <v>337384</v>
+      </c>
+      <c r="E666" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F666" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G666" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H666" s="3"/>
+    </row>
+    <row r="667" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A667" s="4">
+        <v>335180</v>
+      </c>
+      <c r="B667" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C667" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D667" s="4">
+        <v>62243</v>
+      </c>
+      <c r="E667" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F667" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G667" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H667" s="3"/>
+    </row>
+    <row r="668" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A668" s="4">
+        <v>335185</v>
+      </c>
+      <c r="B668" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C668" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D668" s="4">
+        <v>184735</v>
+      </c>
+      <c r="E668" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F668" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G668" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H668" s="3"/>
+    </row>
+    <row r="669" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A669" s="4">
+        <v>335198</v>
+      </c>
+      <c r="B669" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C669" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D669" s="4">
+        <v>270476</v>
+      </c>
+      <c r="E669" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F669" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G669" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H669" s="3"/>
+    </row>
+    <row r="670" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A670" s="4">
+        <v>335205</v>
+      </c>
+      <c r="B670" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C670" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D670" s="4">
+        <v>196746</v>
+      </c>
+      <c r="E670" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F670" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G670" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H670" s="3"/>
+    </row>
+    <row r="671" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A671" s="4">
+        <v>335207</v>
+      </c>
+      <c r="B671" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C671" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D671" s="4">
+        <v>280363</v>
+      </c>
+      <c r="E671" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F671" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G671" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H671" s="3"/>
+    </row>
+    <row r="672" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A672" s="4">
+        <v>335209</v>
+      </c>
+      <c r="B672" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C672" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D672" s="4">
+        <v>30067</v>
+      </c>
+      <c r="E672" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F672" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G672" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H672" s="3"/>
+    </row>
+    <row r="673" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A673" s="4">
+        <v>335212</v>
+      </c>
+      <c r="B673" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C673" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D673" s="4">
+        <v>67511</v>
+      </c>
+      <c r="E673" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F673" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G673" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H673" s="3"/>
+    </row>
+    <row r="674" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A674" s="4">
+        <v>335213</v>
+      </c>
+      <c r="B674" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C674" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D674" s="4">
+        <v>41490</v>
+      </c>
+      <c r="E674" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F674" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G674" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H674" s="3"/>
+    </row>
+    <row r="675" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A675" s="4">
+        <v>335217</v>
+      </c>
+      <c r="B675" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C675" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D675" s="4">
+        <v>285112</v>
+      </c>
+      <c r="E675" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F675" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G675" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H675" s="3"/>
+    </row>
+    <row r="676" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A676" s="4">
+        <v>335222</v>
+      </c>
+      <c r="B676" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C676" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D676" s="4">
+        <v>144613</v>
+      </c>
+      <c r="E676" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F676" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G676" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H676" s="3"/>
+    </row>
+    <row r="677" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A677" s="4">
+        <v>335224</v>
+      </c>
+      <c r="B677" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C677" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D677" s="4">
+        <v>187422</v>
+      </c>
+      <c r="E677" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F677" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G677" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H677" s="3"/>
+    </row>
+    <row r="678" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A678" s="4">
+        <v>335228</v>
+      </c>
+      <c r="B678" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C678" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D678" s="4">
+        <v>69346</v>
+      </c>
+      <c r="E678" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F678" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G678" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H678" s="3"/>
+    </row>
+    <row r="679" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A679" s="4">
+        <v>335230</v>
+      </c>
+      <c r="B679" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C679" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D679" s="4">
+        <v>124404</v>
+      </c>
+      <c r="E679" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F679" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G679" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H679" s="3"/>
+    </row>
+    <row r="680" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A680" s="4">
+        <v>335231</v>
+      </c>
+      <c r="B680" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C680" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D680" s="4">
+        <v>258412</v>
+      </c>
+      <c r="E680" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F680" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G680" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H680" s="3"/>
+    </row>
+    <row r="681" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A681" s="4">
+        <v>335233</v>
+      </c>
+      <c r="B681" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C681" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D681" s="4">
+        <v>305559</v>
+      </c>
+      <c r="E681" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F681" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G681" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H681" s="3"/>
+    </row>
+    <row r="682" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A682" s="4">
+        <v>335234</v>
+      </c>
+      <c r="B682" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C682" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D682" s="4">
+        <v>318587</v>
+      </c>
+      <c r="E682" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F682" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G682" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H682" s="3"/>
+    </row>
+    <row r="683" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A683" s="4">
+        <v>335235</v>
+      </c>
+      <c r="B683" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C683" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D683" s="4">
+        <v>37959</v>
+      </c>
+      <c r="E683" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F683" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G683" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H683" s="3"/>
+    </row>
+    <row r="684" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A684" s="4">
+        <v>335237</v>
+      </c>
+      <c r="B684" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C684" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D684" s="4">
+        <v>36140</v>
+      </c>
+      <c r="E684" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F684" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G684" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H684" s="3"/>
+    </row>
+    <row r="685" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A685" s="4">
+        <v>335238</v>
+      </c>
+      <c r="B685" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C685" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D685" s="4">
+        <v>236895</v>
+      </c>
+      <c r="E685" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F685" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G685" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H685" s="3"/>
+    </row>
+    <row r="686" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A686" s="4">
+        <v>335253</v>
+      </c>
+      <c r="B686" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C686" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D686" s="4">
+        <v>61162</v>
+      </c>
+      <c r="E686" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F686" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G686" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H686" s="3"/>
+    </row>
+    <row r="687" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A687" s="4">
+        <v>335255</v>
+      </c>
+      <c r="B687" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C687" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D687" s="4">
+        <v>201491</v>
+      </c>
+      <c r="E687" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F687" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G687" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H687" s="3"/>
+    </row>
+    <row r="688" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A688" s="4">
+        <v>335256</v>
+      </c>
+      <c r="B688" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C688" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D688" s="4">
+        <v>68664</v>
+      </c>
+      <c r="E688" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F688" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G688" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H688" s="3"/>
+    </row>
+    <row r="689" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A689" s="4">
+        <v>335258</v>
+      </c>
+      <c r="B689" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C689" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D689" s="4">
+        <v>91214</v>
+      </c>
+      <c r="E689" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F689" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G689" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H689" s="3"/>
+    </row>
+    <row r="690" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A690" s="4">
+        <v>335259</v>
+      </c>
+      <c r="B690" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C690" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D690" s="4">
+        <v>248363</v>
+      </c>
+      <c r="E690" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F690" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G690" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H690" s="3"/>
+    </row>
+    <row r="691" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A691" s="4">
+        <v>335272</v>
+      </c>
+      <c r="B691" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C691" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D691" s="4">
+        <v>61101</v>
+      </c>
+      <c r="E691" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F691" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G691" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H691" s="3"/>
+    </row>
+    <row r="692" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A692" s="4">
+        <v>335278</v>
+      </c>
+      <c r="B692" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C692" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D692" s="4">
+        <v>337422</v>
+      </c>
+      <c r="E692" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F692" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G692" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H692" s="3"/>
+    </row>
+    <row r="693" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A693" s="4">
+        <v>335282</v>
+      </c>
+      <c r="B693" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C693" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D693" s="4">
+        <v>69826</v>
+      </c>
+      <c r="E693" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F693" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G693" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H693" s="3"/>
+    </row>
+    <row r="694" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A694" s="4">
+        <v>335284</v>
+      </c>
+      <c r="B694" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C694" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D694" s="4">
+        <v>265074</v>
+      </c>
+      <c r="E694" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F694" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G694" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H694" s="3"/>
+    </row>
+    <row r="695" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A695" s="4">
+        <v>335287</v>
+      </c>
+      <c r="B695" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C695" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D695" s="4">
+        <v>296408</v>
+      </c>
+      <c r="E695" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F695" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G695" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H695" s="3"/>
+    </row>
+    <row r="696" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A696" s="4">
+        <v>335289</v>
+      </c>
+      <c r="B696" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C696" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D696" s="4">
+        <v>225679</v>
+      </c>
+      <c r="E696" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F696" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G696" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H696" s="3"/>
+    </row>
+    <row r="697" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A697" s="4">
+        <v>335290</v>
+      </c>
+      <c r="B697" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C697" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D697" s="4">
+        <v>13756</v>
+      </c>
+      <c r="E697" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F697" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G697" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H697" s="3"/>
+    </row>
+    <row r="698" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A698" s="4">
+        <v>335291</v>
+      </c>
+      <c r="B698" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C698" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D698" s="4">
+        <v>4809</v>
+      </c>
+      <c r="E698" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F698" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G698" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H698" s="3"/>
+    </row>
+    <row r="699" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A699" s="4">
+        <v>335292</v>
+      </c>
+      <c r="B699" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C699" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D699" s="4">
+        <v>137939</v>
+      </c>
+      <c r="E699" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F699" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G699" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H699" s="3"/>
+    </row>
+    <row r="700" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A700" s="4">
+        <v>335294</v>
+      </c>
+      <c r="B700" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C700" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D700" s="4">
+        <v>64275</v>
+      </c>
+      <c r="E700" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F700" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G700" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H700" s="3"/>
+    </row>
+    <row r="701" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A701" s="4">
+        <v>335295</v>
+      </c>
+      <c r="B701" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C701" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D701" s="4">
+        <v>112994</v>
+      </c>
+      <c r="E701" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F701" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G701" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H701" s="3"/>
+    </row>
+    <row r="702" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A702" s="4">
+        <v>335297</v>
+      </c>
+      <c r="B702" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C702" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D702" s="4">
+        <v>72520</v>
+      </c>
+      <c r="E702" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F702" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G702" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H702" s="3"/>
+    </row>
+    <row r="703" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A703" s="4">
+        <v>335300</v>
+      </c>
+      <c r="B703" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C703" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D703" s="4">
+        <v>14951</v>
+      </c>
+      <c r="E703" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F703" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G703" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H703" s="3"/>
+    </row>
+    <row r="704" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A704" s="4">
+        <v>335301</v>
+      </c>
+      <c r="B704" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C704" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D704" s="4">
+        <v>254429</v>
+      </c>
+      <c r="E704" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F704" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G704" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H704" s="3"/>
+    </row>
+    <row r="705" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A705" s="4">
+        <v>335305</v>
+      </c>
+      <c r="B705" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C705" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D705" s="4">
+        <v>38690</v>
+      </c>
+      <c r="E705" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F705" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G705" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H705" s="3"/>
+    </row>
+    <row r="706" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A706" s="4">
+        <v>335307</v>
+      </c>
+      <c r="B706" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C706" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D706" s="4">
+        <v>38180</v>
+      </c>
+      <c r="E706" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F706" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G706" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H706" s="3"/>
+    </row>
+    <row r="707" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A707" s="4">
+        <v>335310</v>
+      </c>
+      <c r="B707" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C707" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D707" s="4">
+        <v>313997</v>
+      </c>
+      <c r="E707" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F707" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G707" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H707" s="3"/>
+    </row>
+    <row r="708" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A708" s="4">
+        <v>335313</v>
+      </c>
+      <c r="B708" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C708" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D708" s="4">
+        <v>139486</v>
+      </c>
+      <c r="E708" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F708" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G708" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H708" s="3"/>
+    </row>
+    <row r="709" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A709" s="4">
+        <v>335314</v>
+      </c>
+      <c r="B709" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C709" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D709" s="4">
+        <v>38187</v>
+      </c>
+      <c r="E709" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F709" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G709" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H709" s="3"/>
+    </row>
+    <row r="710" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A710" s="4">
+        <v>335320</v>
+      </c>
+      <c r="B710" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C710" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D710" s="4">
+        <v>119935</v>
+      </c>
+      <c r="E710" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F710" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G710" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H710" s="3"/>
+    </row>
+    <row r="711" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A711" s="4">
+        <v>335321</v>
+      </c>
+      <c r="B711" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C711" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D711" s="4">
+        <v>85312</v>
+      </c>
+      <c r="E711" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F711" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G711" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H711" s="3"/>
+    </row>
+    <row r="712" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A712" s="4">
+        <v>335323</v>
+      </c>
+      <c r="B712" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C712" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D712" s="4">
+        <v>74004</v>
+      </c>
+      <c r="E712" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F712" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G712" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H712" s="3"/>
+    </row>
+    <row r="713" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A713" s="4">
+        <v>335324</v>
+      </c>
+      <c r="B713" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C713" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D713" s="4">
+        <v>55422</v>
+      </c>
+      <c r="E713" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F713" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G713" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H713" s="3"/>
+    </row>
+    <row r="714" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A714" s="4">
+        <v>335326</v>
+      </c>
+      <c r="B714" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C714" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D714" s="4">
+        <v>19153</v>
+      </c>
+      <c r="E714" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F714" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G714" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H714" s="3"/>
+    </row>
+    <row r="715" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A715" s="4">
+        <v>335329</v>
+      </c>
+      <c r="B715" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C715" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D715" s="4">
+        <v>225624</v>
+      </c>
+      <c r="E715" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F715" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G715" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H715" s="3"/>
+    </row>
+    <row r="716" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A716" s="4">
+        <v>335342</v>
+      </c>
+      <c r="B716" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C716" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D716" s="4">
+        <v>251164</v>
+      </c>
+      <c r="E716" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F716" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G716" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H716" s="3"/>
+    </row>
+    <row r="717" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A717" s="4">
+        <v>335343</v>
+      </c>
+      <c r="B717" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C717" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D717" s="4">
+        <v>200844</v>
+      </c>
+      <c r="E717" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F717" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G717" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H717" s="3"/>
+    </row>
+    <row r="718" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A718" s="4">
+        <v>335347</v>
+      </c>
+      <c r="B718" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C718" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D718" s="4">
+        <v>337428</v>
+      </c>
+      <c r="E718" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F718" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G718" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H718" s="3"/>
+    </row>
+    <row r="719" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A719" s="4">
+        <v>335348</v>
+      </c>
+      <c r="B719" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C719" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D719" s="4">
+        <v>321546</v>
+      </c>
+      <c r="E719" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F719" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G719" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H719" s="3"/>
+    </row>
+    <row r="720" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A720" s="4">
+        <v>335349</v>
+      </c>
+      <c r="B720" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C720" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D720" s="4">
+        <v>337429</v>
+      </c>
+      <c r="E720" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F720" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G720" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H720" s="3"/>
+    </row>
+    <row r="721" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A721" s="4">
+        <v>335350</v>
+      </c>
+      <c r="B721" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C721" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D721" s="4">
+        <v>335768</v>
+      </c>
+      <c r="E721" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F721" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G721" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H721" s="3"/>
+    </row>
+    <row r="722" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A722" s="4">
+        <v>335355</v>
+      </c>
+      <c r="B722" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C722" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D722" s="4">
+        <v>82004</v>
+      </c>
+      <c r="E722" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F722" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G722" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H722" s="3"/>
+    </row>
+    <row r="723" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A723" s="4">
+        <v>335357</v>
+      </c>
+      <c r="B723" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C723" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D723" s="4">
+        <v>246036</v>
+      </c>
+      <c r="E723" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F723" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G723" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H723" s="3"/>
+    </row>
+    <row r="724" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A724" s="4">
+        <v>335358</v>
+      </c>
+      <c r="B724" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C724" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D724" s="4">
+        <v>7843</v>
+      </c>
+      <c r="E724" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F724" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G724" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H724" s="3"/>
+    </row>
+    <row r="725" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A725" s="4">
+        <v>335359</v>
+      </c>
+      <c r="B725" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C725" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D725" s="4">
+        <v>322670</v>
+      </c>
+      <c r="E725" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F725" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G725" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H725" s="3"/>
+    </row>
+    <row r="726" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A726" s="4">
+        <v>335360</v>
+      </c>
+      <c r="B726" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C726" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D726" s="4">
+        <v>92913</v>
+      </c>
+      <c r="E726" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F726" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G726" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H726" s="3"/>
+    </row>
+    <row r="727" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A727" s="4">
+        <v>335361</v>
+      </c>
+      <c r="B727" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C727" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D727" s="4">
+        <v>335172</v>
+      </c>
+      <c r="E727" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F727" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G727" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H727" s="3"/>
+    </row>
+    <row r="728" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A728" s="4">
+        <v>335363</v>
+      </c>
+      <c r="B728" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C728" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D728" s="4">
+        <v>68036</v>
+      </c>
+      <c r="E728" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F728" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G728" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H728" s="3"/>
+    </row>
+    <row r="729" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A729" s="4">
+        <v>335365</v>
+      </c>
+      <c r="B729" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C729" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D729" s="4">
+        <v>83123</v>
+      </c>
+      <c r="E729" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F729" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G729" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H729" s="3"/>
+    </row>
+    <row r="730" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A730" s="4">
+        <v>335366</v>
+      </c>
+      <c r="B730" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C730" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D730" s="4">
+        <v>61290</v>
+      </c>
+      <c r="E730" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F730" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G730" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H730" s="3"/>
+    </row>
+    <row r="731" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A731" s="4">
+        <v>335369</v>
+      </c>
+      <c r="B731" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C731" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D731" s="4">
+        <v>272669</v>
+      </c>
+      <c r="E731" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F731" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G731" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H731" s="3"/>
+    </row>
+    <row r="732" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A732" s="4">
+        <v>335373</v>
+      </c>
+      <c r="B732" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C732" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D732" s="4">
+        <v>19162</v>
+      </c>
+      <c r="E732" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F732" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G732" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H732" s="3"/>
+    </row>
+    <row r="733" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A733" s="4">
+        <v>335378</v>
+      </c>
+      <c r="B733" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C733" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D733" s="4">
+        <v>106835</v>
+      </c>
+      <c r="E733" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F733" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G733" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H733" s="3"/>
+    </row>
+    <row r="734" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A734" s="4">
+        <v>335380</v>
+      </c>
+      <c r="B734" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C734" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D734" s="4">
+        <v>217147</v>
+      </c>
+      <c r="E734" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F734" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G734" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H734" s="3"/>
+    </row>
+    <row r="735" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A735" s="4">
+        <v>335382</v>
+      </c>
+      <c r="B735" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C735" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D735" s="4">
+        <v>68155</v>
+      </c>
+      <c r="E735" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F735" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G735" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H735" s="3"/>
+    </row>
+    <row r="736" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A736" s="4">
+        <v>335389</v>
+      </c>
+      <c r="B736" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C736" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D736" s="4">
+        <v>76001</v>
+      </c>
+      <c r="E736" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F736" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G736" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H736" s="3"/>
+    </row>
+    <row r="737" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A737" s="4">
+        <v>335391</v>
+      </c>
+      <c r="B737" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C737" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D737" s="4">
+        <v>266516</v>
+      </c>
+      <c r="E737" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F737" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G737" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H737" s="3"/>
+    </row>
+    <row r="738" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A738" s="4">
+        <v>335392</v>
+      </c>
+      <c r="B738" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C738" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D738" s="4">
+        <v>65883</v>
+      </c>
+      <c r="E738" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F738" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G738" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H738" s="3"/>
+    </row>
+    <row r="739" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A739" s="4">
+        <v>335398</v>
+      </c>
+      <c r="B739" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C739" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D739" s="4">
+        <v>281935</v>
+      </c>
+      <c r="E739" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F739" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G739" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H739" s="3"/>
+    </row>
+    <row r="740" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A740" s="4">
+        <v>335400</v>
+      </c>
+      <c r="B740" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C740" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D740" s="4">
+        <v>107360</v>
+      </c>
+      <c r="E740" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F740" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G740" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H740" s="3"/>
+    </row>
+    <row r="741" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A741" s="4">
+        <v>335403</v>
+      </c>
+      <c r="B741" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C741" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D741" s="4">
+        <v>244099</v>
+      </c>
+      <c r="E741" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F741" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G741" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H741" s="3"/>
+    </row>
+    <row r="742" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A742" s="4">
+        <v>335405</v>
+      </c>
+      <c r="B742" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C742" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D742" s="4">
+        <v>92856</v>
+      </c>
+      <c r="E742" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F742" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G742" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H742" s="3"/>
+    </row>
+    <row r="743" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A743" s="4">
+        <v>335406</v>
+      </c>
+      <c r="B743" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C743" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D743" s="4">
+        <v>44179</v>
+      </c>
+      <c r="E743" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F743" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G743" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H743" s="3"/>
+    </row>
+    <row r="744" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A744" s="4">
+        <v>335407</v>
+      </c>
+      <c r="B744" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C744" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D744" s="4">
+        <v>39403</v>
+      </c>
+      <c r="E744" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F744" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G744" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H744" s="3"/>
+    </row>
+    <row r="745" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A745" s="4">
+        <v>335408</v>
+      </c>
+      <c r="B745" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C745" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D745" s="4">
+        <v>119607</v>
+      </c>
+      <c r="E745" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F745" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G745" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H745" s="3"/>
+    </row>
+    <row r="746" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A746" s="4">
+        <v>335412</v>
+      </c>
+      <c r="B746" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C746" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D746" s="4">
+        <v>108932</v>
+      </c>
+      <c r="E746" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F746" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G746" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H746" s="3"/>
+    </row>
+    <row r="747" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A747" s="4">
+        <v>335413</v>
+      </c>
+      <c r="B747" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C747" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D747" s="4">
+        <v>42809</v>
+      </c>
+      <c r="E747" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F747" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G747" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H747" s="3"/>
+    </row>
+    <row r="748" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A748" s="4">
+        <v>335418</v>
+      </c>
+      <c r="B748" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C748" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D748" s="4">
+        <v>292365</v>
+      </c>
+      <c r="E748" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F748" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G748" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H748" s="3"/>
+    </row>
+    <row r="749" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A749" s="4">
+        <v>335420</v>
+      </c>
+      <c r="B749" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C749" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D749" s="4">
+        <v>67295</v>
+      </c>
+      <c r="E749" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F749" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G749" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H749" s="3"/>
+    </row>
+    <row r="750" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A750" s="4">
+        <v>335422</v>
+      </c>
+      <c r="B750" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C750" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D750" s="4">
+        <v>258664</v>
+      </c>
+      <c r="E750" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F750" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G750" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H750" s="3"/>
+    </row>
+    <row r="751" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A751" s="4">
+        <v>335423</v>
+      </c>
+      <c r="B751" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C751" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D751" s="4">
+        <v>173692</v>
+      </c>
+      <c r="E751" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F751" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G751" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H751" s="3"/>
+    </row>
+    <row r="752" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A752" s="4">
+        <v>335427</v>
+      </c>
+      <c r="B752" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C752" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D752" s="4">
+        <v>68200</v>
+      </c>
+      <c r="E752" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F752" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G752" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H752" s="3"/>
+    </row>
+    <row r="753" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A753" s="4">
+        <v>335425</v>
+      </c>
+      <c r="B753" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C753" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D753" s="4">
+        <v>248563</v>
+      </c>
+      <c r="E753" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F753" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G753" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H753" s="3"/>
+    </row>
+    <row r="754" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A754" s="4">
+        <v>335428</v>
+      </c>
+      <c r="B754" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C754" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D754" s="4">
+        <v>259832</v>
+      </c>
+      <c r="E754" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F754" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G754" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H754" s="3"/>
+    </row>
+    <row r="755" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A755" s="4">
+        <v>335432</v>
+      </c>
+      <c r="B755" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C755" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D755" s="4">
+        <v>160306</v>
+      </c>
+      <c r="E755" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F755" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G755" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H755" s="3"/>
+    </row>
+    <row r="756" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A756" s="4">
+        <v>335433</v>
+      </c>
+      <c r="B756" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C756" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D756" s="4">
+        <v>91899</v>
+      </c>
+      <c r="E756" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F756" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G756" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H756" s="3"/>
+    </row>
+    <row r="757" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A757" s="4">
+        <v>335434</v>
+      </c>
+      <c r="B757" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C757" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D757" s="4">
+        <v>45731</v>
+      </c>
+      <c r="E757" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F757" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G757" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H757" s="3"/>
+    </row>
+    <row r="758" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A758" s="4">
+        <v>335439</v>
+      </c>
+      <c r="B758" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C758" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D758" s="4">
+        <v>231803</v>
+      </c>
+      <c r="E758" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F758" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G758" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H758" s="3"/>
+    </row>
+    <row r="759" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A759" s="4">
+        <v>335441</v>
+      </c>
+      <c r="B759" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C759" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D759" s="4">
+        <v>214</v>
+      </c>
+      <c r="E759" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F759" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G759" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H759" s="3"/>
+    </row>
+    <row r="760" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A760" s="4">
+        <v>335446</v>
+      </c>
+      <c r="B760" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C760" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D760" s="4">
+        <v>75573</v>
+      </c>
+      <c r="E760" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F760" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G760" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H760" s="3"/>
+    </row>
+    <row r="761" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A761" s="4">
+        <v>335517</v>
+      </c>
+      <c r="B761" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C761" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D761" s="4">
+        <v>34720</v>
+      </c>
+      <c r="E761" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F761" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G761" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H761" s="3"/>
+    </row>
+    <row r="762" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A762" s="4">
+        <v>335536</v>
+      </c>
+      <c r="B762" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C762" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D762" s="4">
+        <v>54154</v>
+      </c>
+      <c r="E762" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F762" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G762" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H762" s="3"/>
+    </row>
+    <row r="763" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A763" s="4">
+        <v>335565</v>
+      </c>
+      <c r="B763" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C763" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D763" s="4">
+        <v>337472</v>
+      </c>
+      <c r="E763" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F763" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G763" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H763" s="3"/>
+    </row>
+    <row r="764" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A764" s="4">
+        <v>335597</v>
+      </c>
+      <c r="B764" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C764" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D764" s="4">
+        <v>93787</v>
+      </c>
+      <c r="E764" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F764" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G764" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H764" s="3"/>
+    </row>
+    <row r="765" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A765" s="4">
+        <v>335617</v>
+      </c>
+      <c r="B765" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C765" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D765" s="4">
+        <v>149167</v>
+      </c>
+      <c r="E765" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F765" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G765" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H765" s="3"/>
+    </row>
+    <row r="766" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A766" s="4">
+        <v>335624</v>
+      </c>
+      <c r="B766" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C766" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D766" s="4">
+        <v>260556</v>
+      </c>
+      <c r="E766" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F766" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G766" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H766" s="3"/>
+    </row>
+    <row r="767" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A767" s="4">
+        <v>335645</v>
+      </c>
+      <c r="B767" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C767" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D767" s="4">
+        <v>94885</v>
+      </c>
+      <c r="E767" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F767" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G767" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H767" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1"/>
